--- a/IDEIAS/Tabelas.xlsx
+++ b/IDEIAS/Tabelas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Werner\Google Drive\Projetos\E-Commerce_BookStore\IDEIAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3738BB25-40BE-45BB-B3E1-87DBAC1501B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7BFCED-FAD9-4281-B5D5-4AC1D3F43F4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-3510" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -539,7 +539,7 @@
   <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
